--- a/data.xlsx
+++ b/data.xlsx
@@ -47,9 +47,6 @@
     <t>https://i.ytimg.com/vi/XKO8XLD_kfw/maxresdefault.jpg</t>
   </si>
   <si>
-    <t>https://images.unsplash.com/photo-1606107557195-0e29a4b5b4aa?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwcm9maWxlLXBhZ2V8NHx8fGVufDB8fHx8&amp;w=1000&amp;q=80</t>
-  </si>
-  <si>
     <t>https://images.unsplash.com/photo-1542291026-7eec264c27ff?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxzZWFyY2h8Mnx8c2hvZXMlMjBuaWtlfGVufDB8fDB8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=600&amp;q=60</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>https://images.unsplash.com/photo-1610899146640-f77e17056248?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxzZWFyY2h8MzV8fHNob2VzJTIwbmlrZXxlbnwwfHwwfHw%3D&amp;auto=format&amp;fit=crop&amp;w=600&amp;q=60</t>
   </si>
   <si>
-    <t>https://images.unsplash.com/photo-1605348532760-6753d2c43329?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxzZWFyY2h8NTV8fHNob2VzJTIwbmlrZXxlbnwwfHwwfHw%3D&amp;auto=format&amp;fit=crop&amp;w=600&amp;q=60</t>
-  </si>
-  <si>
     <t>Nike black</t>
   </si>
   <si>
@@ -108,6 +102,12 @@
   </si>
   <si>
     <t>120$</t>
+  </si>
+  <si>
+    <t>https://images.solecollector.com/complex/images/c_crop,h_1074,w_1910,x_39,y_680/c_fill,dpr_2.0,f_auto,fl_lossy,q_auto,w_680/e6cssprrcvp9avurwt40/nike-sb-dunk-low-phillies-dq4040-400-pair</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/g/JiEAAOSw6tNd57KR/s-l500.jpg</t>
   </si>
 </sst>
 </file>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,7 +487,7 @@
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="173.109375" customWidth="1"/>
+    <col min="4" max="4" width="182.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
@@ -509,10 +509,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
@@ -523,10 +523,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>4</v>
@@ -537,10 +537,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -565,13 +565,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -579,13 +579,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -593,13 +593,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -607,13 +607,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
